--- a/UserProfile/excel/vinod.xlsx
+++ b/UserProfile/excel/vinod.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1731,12 +1731,10 @@
           <t>BANKNIFTY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>45500</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="n">
+      <c r="C25" t="n">
+        <v>45500</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="E25" t="inlineStr">
@@ -1749,15 +1747,11 @@
           <t>14:09</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>114.25</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>397.00</t>
-        </is>
+      <c r="G25" t="n">
+        <v>114.25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>397</v>
       </c>
       <c r="I25" t="n">
         <v>282.75</v>
@@ -1783,12 +1777,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>20300</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n">
+      <c r="C26" t="n">
+        <v>20300</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -1801,15 +1793,11 @@
           <t>12:39</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>114.50</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
+      <c r="G26" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>150</v>
       </c>
       <c r="I26" t="n">
         <v>35.5</v>
@@ -1822,6 +1810,110 @@
       </c>
       <c r="L26" t="n">
         <v>44.65208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20350</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>-24.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-961.9999999999999</v>
+      </c>
+      <c r="L27" t="n">
+        <v>39.72673696</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>45800</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>358.80</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>314.00</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>-44.80000000000001</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-672.0000000000002</v>
+      </c>
+      <c r="L28" t="n">
+        <v>41.2695078</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,6 +2124,37 @@
         <v>581.7200798899999</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20125.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20175.72</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44.11999999999971</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4411.999999999971</v>
+      </c>
+      <c r="I6" t="n">
+        <v>580.573851836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/vinod.xlsx
+++ b/UserProfile/excel/vinod.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,12 +1823,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>20350</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="n">
+      <c r="C27" t="n">
+        <v>20350</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>45183</v>
       </c>
       <c r="E27" t="inlineStr">
@@ -1841,15 +1839,11 @@
           <t>12:32</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>110.85</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>86.80</t>
-        </is>
+      <c r="G27" t="n">
+        <v>110.85</v>
+      </c>
+      <c r="H27" t="n">
+        <v>86.8</v>
       </c>
       <c r="I27" t="n">
         <v>-24.05</v>
@@ -1875,12 +1869,10 @@
           <t>BANKNIFTY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>45800</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n">
+      <c r="C28" t="n">
+        <v>45800</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>45183</v>
       </c>
       <c r="E28" t="inlineStr">
@@ -1893,15 +1885,11 @@
           <t>14:05</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>358.80</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>314.00</t>
-        </is>
+      <c r="G28" t="n">
+        <v>358.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>314</v>
       </c>
       <c r="I28" t="n">
         <v>-44.80000000000001</v>
@@ -1914,6 +1902,110 @@
       </c>
       <c r="L28" t="n">
         <v>41.2695078</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>45184</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>111.25</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>21.84999999999999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>80</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1748</v>
+      </c>
+      <c r="L29" t="n">
+        <v>48.676002</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>46200</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>45184</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>246.30</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>225.50</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>-20.80000000000001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>30</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-624.0000000000003</v>
+      </c>
+      <c r="L30" t="n">
+        <v>43.8304077</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,6 +2247,37 @@
         <v>580.573851836</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20169.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20198.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22.84999999999927</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2284.999999999927</v>
+      </c>
+      <c r="I7" t="n">
+        <v>584.2775801600001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/vinod.xlsx
+++ b/UserProfile/excel/vinod.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,12 +1915,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="n">
+      <c r="C29" t="n">
+        <v>20500</v>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>45184</v>
       </c>
       <c r="E29" t="inlineStr">
@@ -1933,15 +1931,11 @@
           <t>11:32</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>111.25</t>
-        </is>
+      <c r="G29" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>111.25</v>
       </c>
       <c r="I29" t="n">
         <v>21.84999999999999</v>
@@ -1967,12 +1961,10 @@
           <t>BANKNIFTY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>46200</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="n">
+      <c r="C30" t="n">
+        <v>46200</v>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>45184</v>
       </c>
       <c r="E30" t="inlineStr">
@@ -1985,15 +1977,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>246.30</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>225.50</t>
-        </is>
+      <c r="G30" t="n">
+        <v>246.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>225.5</v>
       </c>
       <c r="I30" t="n">
         <v>-20.80000000000001</v>
@@ -2006,6 +1994,938 @@
       </c>
       <c r="L30" t="n">
         <v>43.8304077</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>46200</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>161.95</v>
+      </c>
+      <c r="H31" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-25.14999999999998</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-377.2499999999997</v>
+      </c>
+      <c r="L31" t="n">
+        <v>37.95716136</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>20500</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>13:36</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-14.15</v>
+      </c>
+      <c r="J32" t="n">
+        <v>40</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-566</v>
+      </c>
+      <c r="L32" t="n">
+        <v>35.4996944</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>20200</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>127.75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>133.65</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.900000000000006</v>
+      </c>
+      <c r="J33" t="n">
+        <v>40</v>
+      </c>
+      <c r="K33" t="n">
+        <v>236.0000000000002</v>
+      </c>
+      <c r="L33" t="n">
+        <v>42.35707828000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10:29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>53</v>
+      </c>
+      <c r="H34" t="n">
+        <v>26</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-27</v>
+      </c>
+      <c r="J34" t="n">
+        <v>50</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-1350</v>
+      </c>
+      <c r="L34" t="n">
+        <v>37.020034</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>19750</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>14:41</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-7.199999999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>50</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-359.9999999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>35.524618</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>422.15</v>
+      </c>
+      <c r="I36" t="n">
+        <v>85.64999999999998</v>
+      </c>
+      <c r="J36" t="n">
+        <v>15</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1284.75</v>
+      </c>
+      <c r="L36" t="n">
+        <v>44.897060805</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>295</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14.69999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>30</v>
+      </c>
+      <c r="K37" t="n">
+        <v>440.9999999999997</v>
+      </c>
+      <c r="L37" t="n">
+        <v>46.979943</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>19800</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12:17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>86.05</v>
+      </c>
+      <c r="H38" t="n">
+        <v>86</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.04999999999999716</v>
+      </c>
+      <c r="J38" t="n">
+        <v>50</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-2.499999999999858</v>
+      </c>
+      <c r="L38" t="n">
+        <v>40.758574</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>19600</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>109.65</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.400000000000006</v>
+      </c>
+      <c r="J39" t="n">
+        <v>50</v>
+      </c>
+      <c r="K39" t="n">
+        <v>70.00000000000028</v>
+      </c>
+      <c r="L39" t="n">
+        <v>42.31968185</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>44400</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>211.45</v>
+      </c>
+      <c r="H40" t="n">
+        <v>162.05</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-49.39999999999998</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-740.9999999999997</v>
+      </c>
+      <c r="L40" t="n">
+        <v>38.429152035</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>19650</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>47</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-20.05</v>
+      </c>
+      <c r="J41" t="n">
+        <v>50</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-1002.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>38.328523</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>225.95</v>
+      </c>
+      <c r="H42" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-63.44999999999999</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-951.7499999999998</v>
+      </c>
+      <c r="L42" t="n">
+        <v>38.43756375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>19650</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>47</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-20.05</v>
+      </c>
+      <c r="J43" t="n">
+        <v>50</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-1002.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>38.328523</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>225.95</v>
+      </c>
+      <c r="H44" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-63.44999999999999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>15</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-951.7499999999998</v>
+      </c>
+      <c r="L44" t="n">
+        <v>38.43756375</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>19550</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>58.15</v>
+      </c>
+      <c r="H45" t="n">
+        <v>141.45</v>
+      </c>
+      <c r="I45" t="n">
+        <v>83.29999999999998</v>
+      </c>
+      <c r="J45" t="n">
+        <v>50</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4164.999999999999</v>
+      </c>
+      <c r="L45" t="n">
+        <v>49.41985805</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>44200</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-79</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1185</v>
+      </c>
+      <c r="L46" t="n">
+        <v>37.45806627</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>44700</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>10:23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>261</v>
+      </c>
+      <c r="I47" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2109</v>
+      </c>
+      <c r="L47" t="n">
+        <v>42.9150447</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>19650</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-24.65</v>
+      </c>
+      <c r="J48" t="n">
+        <v>50</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-1232.5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>35.711545</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>19800</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>45198</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>54.75</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>7.200000000000003</v>
+      </c>
+      <c r="J49" t="n">
+        <v>80</v>
+      </c>
+      <c r="K49" t="n">
+        <v>576.0000000000002</v>
+      </c>
+      <c r="L49" t="n">
+        <v>42.29606808</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>44600</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>45198</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>231.90</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>210.35</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>-21.55000000000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>30</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-646.5000000000003</v>
+      </c>
+      <c r="L50" t="n">
+        <v>43.26401889</v>
       </c>
     </row>
   </sheetData>
@@ -2037,7 +2957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2278,6 +3198,192 @@
         <v>584.2775801600001</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19966.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19861.05</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9725</v>
+      </c>
+      <c r="I8" t="n">
+        <v>575.8502718899999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19782.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19790</v>
+      </c>
+      <c r="E9" t="n">
+        <v>53.55</v>
+      </c>
+      <c r="F9" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-9.000000000000725</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-900.0000000000725</v>
+      </c>
+      <c r="I9" t="n">
+        <v>581.0266835</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19702.65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19689.87</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.210000000002474</v>
+      </c>
+      <c r="H10" t="n">
+        <v>921.0000000002474</v>
+      </c>
+      <c r="I10" t="n">
+        <v>575.5030390460001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19702.65</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19689.87</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.210000000002474</v>
+      </c>
+      <c r="H11" t="n">
+        <v>921.0000000002474</v>
+      </c>
+      <c r="I11" t="n">
+        <v>575.5030390460001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19678.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19623.15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-50.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-5075</v>
+      </c>
+      <c r="I12" t="n">
+        <v>574.9592308700001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19712.87</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19720.55</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-7.680000000000291</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-768.0000000000291</v>
+      </c>
+      <c r="I13" t="n">
+        <v>573.70882309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/vinod.xlsx
+++ b/UserProfile/excel/vinod.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2868,7 +2868,7 @@
           <t>3P196</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="2" t="n">
         <v>45204</v>
       </c>
       <c r="E53" t="inlineStr">
@@ -2881,15 +2881,11 @@
           <t>10:50</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>73.65</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>61.90</t>
-        </is>
+      <c r="G53" t="n">
+        <v>73.65000000000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>61.9</v>
       </c>
       <c r="I53" t="n">
         <v>-11.75000000000001</v>
@@ -2920,7 +2916,7 @@
           <t>3P195</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="2" t="n">
         <v>45204</v>
       </c>
       <c r="E54" t="inlineStr">
@@ -2933,15 +2929,11 @@
           <t>13:44</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>18.15</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="G54" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
       </c>
       <c r="I54" t="n">
         <v>-16.15</v>
@@ -2954,6 +2946,110 @@
       </c>
       <c r="L54" t="n">
         <v>35.524618</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>19750</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>45205</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>63.20</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>-14.2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>80</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1136</v>
+      </c>
+      <c r="L55" t="n">
+        <v>40.28502560000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>19600</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>45205</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>109.30</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>111.00</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="J56" t="n">
+        <v>50</v>
+      </c>
+      <c r="K56" t="n">
+        <v>85.00000000000014</v>
+      </c>
+      <c r="L56" t="n">
+        <v>42.422549</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +3081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3505,6 +3601,37 @@
         <v>572.35771626</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19569.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19617.12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30.82000000000044</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3082.000000000044</v>
+      </c>
+      <c r="I17" t="n">
+        <v>575.771835956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/vinod.xlsx
+++ b/UserProfile/excel/vinod.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,27 +31,11 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -74,18 +60,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -110,47 +88,35 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="number_style" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -513,92 +479,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="8.88671875" customWidth="1" style="3" min="4" max="10"/>
-    <col width="12.21875" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
-    <col width="12.21875" bestFit="1" customWidth="1" style="3" min="13" max="13"/>
-    <col width="8.88671875" customWidth="1" style="3" min="14" max="40"/>
-    <col width="8.88671875" customWidth="1" style="3" min="41" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
+    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="7" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
@@ -617,40 +577,40 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>LongSignal</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="n">
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="3" t="n">
         <v>45229.44861111111</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>75.84999999999999</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>72.45</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="n">
+      <c r="H2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
         <v>-3.4</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="6" t="n">
         <v>-170</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="6" t="n">
         <v>39.91</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="6" t="n">
         <v>-209.91</v>
       </c>
     </row>
@@ -667,40 +627,40 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>LongSignal</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="n">
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="3" t="n">
         <v>45229.47986111111</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>93.5</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>76.2</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="n">
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="n">
         <v>-17.3</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="6" t="n">
         <v>-692</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="6" t="n">
         <v>39.2</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="6" t="n">
         <v>-731.2</v>
       </c>
     </row>
@@ -720,37 +680,37 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="3" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="3" t="n">
         <v>45230.5125</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>184.9</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>186</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
         <v>1.1</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="6" t="n">
         <v>16.5</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="6" t="n">
         <v>38.9</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="6" t="n">
         <v>-22.4</v>
       </c>
     </row>
@@ -770,37 +730,37 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="3" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="3" t="n">
         <v>45230.54861111111</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>86.8</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>66.5</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="n">
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="n">
         <v>-20.3</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="6" t="n">
         <v>-1015</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="6" t="n">
         <v>39.54</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="N5" s="6" t="n">
         <v>-1054.54</v>
       </c>
     </row>
@@ -820,37 +780,37 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="3" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="3" t="n">
         <v>45231.62569444445</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>110.1</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>83.5</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="n">
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
         <v>-26.6</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="6" t="n">
         <v>-1064</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="6" t="n">
         <v>39.56</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="6" t="n">
         <v>-1103.56</v>
       </c>
     </row>
@@ -870,290 +830,250 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="3" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="3" t="n">
         <v>45231.51875</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>52.5</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="n">
         <v>-50.5</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="6" t="n">
         <v>-757.5</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="6" t="n">
         <v>35.44</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="6" t="n">
         <v>-792.9400000000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="6" t="n"/>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>MP163</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>NIFTY02NOV23P19100</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>45232.48402777778</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>45232.61944444444</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-22.45</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-1122.5</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-1158.02</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="6" t="n"/>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>MP164</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>BANKNIFTY08NOV23P43000</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>45232.4875</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>45232.59444444445</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>291.9</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>246</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-45.9</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-688.5</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-728.5</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="6" t="n"/>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>MP165</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23C19250</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-03 10:58:00</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-03 11:52:00</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>110.05</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>96.34999999999999</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-685</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-726.4</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="6" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="6" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
-      <c r="M15" s="6" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="6" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="6" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="E18" s="4" t="n"/>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
-      <c r="I18" s="5" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
-      <c r="M18" s="6" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-      <c r="I19" s="5" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="6" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" s="5" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="6" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
-      <c r="I21" s="5" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="5" t="n"/>
-      <c r="L21" s="5" t="n"/>
-      <c r="M21" s="6" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
-      <c r="I22" s="5" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="5" t="n"/>
-      <c r="L22" s="5" t="n"/>
-      <c r="M22" s="6" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
-      <c r="I23" s="5" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="5" t="n"/>
-      <c r="L23" s="5" t="n"/>
-      <c r="M23" s="6" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
-      <c r="I24" s="5" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="5" t="n"/>
-      <c r="L24" s="5" t="n"/>
-      <c r="M24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
-      <c r="I25" s="5" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="5" t="n"/>
-      <c r="L25" s="5" t="n"/>
-      <c r="M25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="5" t="n"/>
-      <c r="H26" s="5" t="n"/>
-      <c r="I26" s="5" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="5" t="n"/>
-      <c r="L26" s="5" t="n"/>
-      <c r="M26" s="6" t="n"/>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>MP166</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>BANKNIFTY08NOV23C43400</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-03 10:58:00</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-03 11:18:00</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>248.05</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>207</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-41.05</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-615.75</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-655.02</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1163,81 +1083,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="10" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="10" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="10" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="10" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
@@ -1259,37 +1179,37 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="4" t="n">
         <v>66.25</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="H2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>-3.65</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="4" t="n">
         <v>-54.75</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="4" t="n">
         <v>35.44</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="4" t="n">
         <v>-90.19</v>
       </c>
     </row>
@@ -1309,57 +1229,42 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="3" t="n">
         <v>45231.46666666667</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="4" t="n">
         <v>107.5</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="n">
+      <c r="H3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>-4.5</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="4" t="n">
         <v>-180</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="4" t="n">
         <v>43.72</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="4" t="n">
         <v>-223.72</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="6" t="n"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1369,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,37 +1283,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -1722,6 +1627,146 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>₹ 47,703.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>02-Nov-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MP163</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-₹ 1,158.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>₹ 46,545.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>02-Nov-23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MP164</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-₹ 728.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>₹ 45,816.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>03-Nov-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MP165</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-₹ 726.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>₹ 43,158.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>03-Nov-23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MP166</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-₹ 655.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>₹ 42,503.60</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/vinod.xlsx
+++ b/UserProfile/excel/vinod.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,16 +12,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,22 +29,7 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
+    <font/>
     <font>
       <b val="1"/>
     </font>
@@ -56,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,43 +50,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin"/>
       <right style="thin"/>
@@ -109,13 +59,16 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -123,23 +76,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="number_style" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="number_style" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -502,19 +451,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="7"/>
-    <col width="8.77734375" customWidth="1" style="2" min="8" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -542,27 +485,27 @@
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
@@ -572,528 +515,774 @@
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>MP157</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>FINNIFTY31OCT23P19150</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.44861111111</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>75.84999999999999</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>72.45</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-3.4</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>-170</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>39.91</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="5" t="n">
         <v>-209.91</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>MP158</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45229.47986111111</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>93.5</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>76.2</v>
       </c>
-      <c r="H3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-17.3</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>-692</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>39.2</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="5" t="n">
         <v>-731.2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>MP159</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P43000</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45230.5125</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>184.9</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>1.1</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>16.5</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>38.9</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="5" t="n">
         <v>-22.4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>MP160</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45230.54861111111</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>86.8</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>66.5</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>-20.3</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>-1015</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>39.54</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>-1054.54</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>MP161</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>FINNIFTY07NOV23P19100</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>45231.62569444445</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>110.1</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>83.5</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>-26.6</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="5" t="n">
         <v>-1064</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="5" t="n">
         <v>39.56</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="5" t="n">
         <v>-1103.56</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>MP162</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P42600</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="6" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>45231.51875</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>52.5</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>-50.5</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="5" t="n">
         <v>-757.5</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="5" t="n">
         <v>35.44</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="5" t="n">
         <v>-792.9400000000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>MP163</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="6" t="n">
         <v>45232.48402777778</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="6" t="n">
         <v>45232.61944444444</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>24.45</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>-22.45</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="5" t="n">
         <v>-1122.5</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="5" t="n">
         <v>35.52</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="5" t="n">
         <v>-1158.02</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>MP164</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY08NOV23P43000</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="6" t="n">
         <v>45232.4875</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="6" t="n">
         <v>45232.59444444445</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="5" t="n">
         <v>291.9</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="5" t="n">
         <v>246</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>-45.9</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="5" t="n">
         <v>-688.5</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>-728.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>MP165</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>NIFTY09NOV23C19250</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 10:58:00</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 11:52:00</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="n">
+      <c r="D10" s="6" t="n">
+        <v>45233.45694444444</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45233.49444444444</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>110.05</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="5" t="n">
         <v>96.34999999999999</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>-13.7</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="5" t="n">
         <v>-685</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="5" t="n">
         <v>41.4</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="5" t="n">
         <v>-726.4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>MP166</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY08NOV23C43400</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 10:58:00</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 11:18:00</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="n">
+      <c r="D11" s="6" t="n">
+        <v>45233.45694444444</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45233.47083333333</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>248.05</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="5" t="n">
         <v>207</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="n">
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>-41.05</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="5" t="n">
         <v>-615.75</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="5" t="n">
         <v>39.27</v>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="N11" s="5" t="n">
         <v>-655.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-35.4</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1302,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1141,27 +1330,27 @@
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
@@ -1171,119 +1360,119 @@
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Error1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P42600</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>66.25</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-3.65</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>-54.75</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <v>35.44</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>-90.19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Error2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>FINNIFTY07NOV23P19100</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45231.46666666667</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>107.5</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-4.5</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>-180</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <v>43.72</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>-223.72</v>
       </c>
     </row>
@@ -1298,7 +1487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,37 +1496,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -1791,6 +1980,181 @@
       <c r="G14" t="inlineStr">
         <is>
           <t>₹ 44,435.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>₹44,399.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>₹44,364.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>₹44,329.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>₹44,293.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>₹44,258.21</t>
         </is>
       </c>
     </row>
